--- a/biology/Médecine/1612_en_santé_et_médecine/1612_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1612_en_santé_et_médecine/1612_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1612_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1612_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1612 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1612_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1612_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>« Un nouveau conflit [entre le roi et la faculté de médecine] débute avec l'accueil de Théophraste Renaudot (1584-1653) dans la maison médicale de Louis XIII dirigée par Jean Héroard, Premier médecin[1] ».
-Santorio Santorio (1561-1636) met au point un thermoscope, ancêtre du thermomètre[2].
-1607 ou 1612 : à Saint-Malo, la maison-Dieu de La Licorne, fondée en 1252-1253 par Geoffroi de Pontual et qui est aux origines de l'actuel centre hospitalier Broussais, est transférée sur les terrains alors libérés par le sanitat[3],[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« Un nouveau conflit [entre le roi et la faculté de médecine] débute avec l'accueil de Théophraste Renaudot (1584-1653) dans la maison médicale de Louis XIII dirigée par Jean Héroard, Premier médecin ».
+Santorio Santorio (1561-1636) met au point un thermoscope, ancêtre du thermomètre.
+1607 ou 1612 : à Saint-Malo, la maison-Dieu de La Licorne, fondée en 1252-1253 par Geoffroi de Pontual et qui est aux origines de l'actuel centre hospitalier Broussais, est transférée sur les terrains alors libérés par le sanitat,.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1612_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1612_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Charles Guillemeau, fils de Jacques Guillemeau (1550-1613), « publie [l']ouvrage qui le fera rentrer [sic] dans l'histoire de la médecine[5], l'Histoire de tous les muscles du corps humain (Paris, chez Nicolas  Buon[6]) ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charles Guillemeau, fils de Jacques Guillemeau (1550-1613), « publie [l']ouvrage qui le fera rentrer [sic] dans l'histoire de la médecine, l'Histoire de tous les muscles du corps humain (Paris, chez Nicolas  Buon) ».</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1612_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1612_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">26 octobre : Jean Bauhin (né en 1541),  médecin et naturaliste suisse[7],[8].
-Jacques de Cahaignes (né en 1548), médecin français[9].
-1611 ou 1612 : John Gerard (né en 1545), médecin et botaniste anglais[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 octobre : Jean Bauhin (né en 1541),  médecin et naturaliste suisse,.
+Jacques de Cahaignes (né en 1548), médecin français.
+1611 ou 1612 : John Gerard (né en 1545), médecin et botaniste anglais.
 </t>
         </is>
       </c>
